--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="11520" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -159,7 +159,49 @@
     <t>15/1/2026</t>
   </si>
   <si>
-    <t>Adding styles for mobile vers</t>
+    <t>Adding styles for mobile vers.</t>
+  </si>
+  <si>
+    <t>Fix header and move API URL to env</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Fixing header and moving API URL to env.</t>
+  </si>
+  <si>
+    <t>Separate presentation components</t>
+  </si>
+  <si>
+    <t>Separating Search and Sort functionality. Separating Input, Select, Textarea and Image fields from form.</t>
+  </si>
+  <si>
+    <t>Fix garage logic and img inside the form</t>
+  </si>
+  <si>
+    <t>Fix form handling for "No" value in garage field. Adding image preview in editing form.</t>
+  </si>
+  <si>
+    <t>Change the screen width for mobile version, remove useless fragments</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Changing the screen width for mobile version, removing useless fragments from code.</t>
+  </si>
+  <si>
+    <t>Add JSDoc comments to the project</t>
+  </si>
+  <si>
+    <t>Adding JSDoc comments to the project.</t>
+  </si>
+  <si>
+    <t>Add filter by garage</t>
+  </si>
+  <si>
+    <t>Adding filter by garage.</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -176,7 +218,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -233,6 +275,22 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,12 +420,6 @@
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -851,7 +903,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -870,133 +922,139 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -1068,56 +1126,58 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Note" xfId="6" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="7" builtinId="11"/>
-    <cellStyle name="Title" xfId="8" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="9" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="10" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="12" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="13" builtinId="19"/>
-    <cellStyle name="Input" xfId="14" builtinId="20"/>
-    <cellStyle name="Output" xfId="15" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="16" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="17" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="18" builtinId="24"/>
-    <cellStyle name="Total" xfId="19" builtinId="25"/>
-    <cellStyle name="Good" xfId="20" builtinId="26"/>
-    <cellStyle name="Bad" xfId="21" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="23" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="24" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="25" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="26" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="27" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="28" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="29" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="30" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="31" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="32" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="33" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="34" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="35" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="36" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="37" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="38" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="39" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="40" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="41" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="42" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="43" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="44" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="46" builtinId="52"/>
-    <cellStyle name="Normal 2" xfId="47"/>
-    <cellStyle name="Standaard 2" xfId="48"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Standaard 2" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -2328,8 +2388,8 @@
   <sheetPr/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -2595,54 +2655,105 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="14">
+        <v>46055</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="16"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:6">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+    <row r="19" ht="21" customHeight="1" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="13">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14">
+        <v>46055</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:6">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14">
+        <v>46055</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:6">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+    <row r="21" ht="24" customHeight="1" spans="1:6">
+      <c r="A21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14">
+        <v>46083</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14">
+        <v>46083</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="16"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" ht="17" customHeight="1" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="A23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14">
+        <v>46083</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" ht="17" customHeight="1" spans="1:6">
@@ -2711,11 +2822,11 @@
     </row>
     <row r="32" ht="16.25" customHeight="1" spans="1:6">
       <c r="A32" s="22" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B32" s="23">
         <f>SUMIF(E4:E30,"&lt;&gt;x",B4:B30)</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="24"/>
